--- a/CaseData.xlsx
+++ b/CaseData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miller\Desktop\MARL\AEMO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8DF7C6-BBCD-4051-AC11-AA9C43C45C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13512A72-C9CB-40B1-8549-AF7A2B23462B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="156" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AgentSettings" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="62">
   <si>
     <t>AgentID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Averaged</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Capacity (MW)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,15 +249,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mixed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StrategicFactors: 1,1.4,1.8,2.2,2.6,3,3.4,3.8,4.2,4.6,5,5.4,5.8,6.2,6.6,7,7.4,7.8,8.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CostShape: [1,1.05,1.1,1.15,1.2,1.25,1.3,1.35,1.4,1.45]</t>
+    <t>StrategicFactors: 1,1.5,2,2.5,3,3.5,4,4.5,5,5.5,6,6.5,7,7.5,8,8.5,9,9.5,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StrategicFactors : 1,1.25,1.5,1.75,2,2.25,2.5,2.75,3,3.25,3.5,3.75,4,4.25,4.5,4.75,5,5.25,5.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostShape: [1,1.1,1.2,1.3,1.4,1.5,1.6,1.7,1.8,1.9]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -636,13 +640,13 @@
         <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -662,10 +666,10 @@
         <v>750</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -685,10 +689,10 @@
         <v>750</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -708,7 +712,7 @@
         <v>750</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -728,7 +732,7 @@
         <v>700</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -748,7 +752,7 @@
         <v>700</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -768,7 +772,7 @@
         <v>700</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -788,7 +792,7 @@
         <v>700</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -808,7 +812,7 @@
         <v>680</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -828,7 +832,7 @@
         <v>680</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -848,7 +852,7 @@
         <v>550</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -868,7 +872,7 @@
         <v>550</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -888,7 +892,7 @@
         <v>550</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -899,7 +903,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2">
         <v>174.66</v>
@@ -908,7 +912,7 @@
         <v>440</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -919,7 +923,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2">
         <v>160.72</v>
@@ -928,7 +932,7 @@
         <v>752</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -951,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4C364F-0EFA-4D63-9539-D1A3411A9F15}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -968,10 +972,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -982,7 +986,7 @@
         <v>750</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
@@ -996,7 +1000,7 @@
         <v>750</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1007,7 +1011,7 @@
         <v>750</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1018,7 +1022,7 @@
         <v>700</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1029,7 +1033,7 @@
         <v>700</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1040,7 +1044,7 @@
         <v>700</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1051,7 +1055,7 @@
         <v>700</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1062,7 +1066,7 @@
         <v>680</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1073,7 +1077,7 @@
         <v>680</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1084,7 +1088,7 @@
         <v>550</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1095,7 +1099,7 @@
         <v>550</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1106,7 +1110,7 @@
         <v>550</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1117,7 +1121,7 @@
         <v>440</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1128,7 +1132,7 @@
         <v>752</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1141,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2DD2C2-671D-4F15-89CF-E446DF5CFDB4}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1158,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1169,13 +1173,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1183,13 +1187,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1197,10 +1201,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1208,10 +1212,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1219,10 +1223,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1230,10 +1234,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1241,10 +1245,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1252,10 +1256,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1263,10 +1267,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1274,10 +1278,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1285,10 +1289,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1296,10 +1300,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1307,10 +1311,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1318,10 +1322,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/CaseData.xlsx
+++ b/CaseData.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miller\Desktop\MARL\AEMO\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MARL\AEMO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13512A72-C9CB-40B1-8549-AF7A2B23462B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB828300-B2A6-4FE3-9656-620ACA7ACA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AgentSettings" sheetId="1" r:id="rId1"/>
-    <sheet name="StrategySpaceInReference5" sheetId="2" r:id="rId2"/>
-    <sheet name="StrategySpaceInReference7" sheetId="3" r:id="rId3"/>
+    <sheet name="StrategySpaceInReference 10" sheetId="2" r:id="rId2"/>
+    <sheet name="StrategySpaceInReference 11" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -615,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -1145,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2DD2C2-671D-4F15-89CF-E446DF5CFDB4}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
